--- a/biology/Zoologie/Haplohexapodibius_seductor/Haplohexapodibius_seductor.xlsx
+++ b/biology/Zoologie/Haplohexapodibius_seductor/Haplohexapodibius_seductor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplohexapodibius seductor, unique représentant du genre Haplohexapodibius, est une espèce de tardigrades de la famille des Hexapodibiidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis, au Chili et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis, au Chili et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 430 µm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 430 µm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été déplacé des Calohypsibiidae aux Isohypsibiidae par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014[2] puis aux Hexapodibiidae par Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi et Guidetti  en 2016[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été déplacé des Calohypsibiidae aux Isohypsibiidae par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014 puis aux Hexapodibiidae par Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi et Guidetti  en 2016.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pilato &amp; Beasley, 1987 : Haplohexapodibius seductor n. gen. n. sp. (Eutardigrada Calohypsibiidae) with remarks on the systematic position of the new genus. Animalia (Catania), vol. 14, no 1/3, p. 65-71.</t>
         </is>
